--- a/Benchmarking/amphibole/Jordans_Versions/RiMG069_Ch04_hbld_plag_thermo-jla_Jordan_Benchmark.xlsx
+++ b/Benchmarking/amphibole/Jordans_Versions/RiMG069_Ch04_hbld_plag_thermo-jla_Jordan_Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\amphibole\Jordans_Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7AC969F5-8AC2-4F9C-A3D2-4AD27547A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D7ABB99-888B-4022-9486-8BB901B54EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Calc_An_PWedited" sheetId="3" r:id="rId1"/>
@@ -701,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -973,6 +979,13 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:AR241"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I109" sqref="B109:I109"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="13.2"/>
@@ -6773,79 +6786,79 @@
       <c r="AQ104" s="103"/>
       <c r="AR104" s="103"/>
     </row>
-    <row r="105" spans="1:44" s="9" customFormat="1">
-      <c r="A105" s="27" t="s">
+    <row r="105" spans="1:44" s="104" customFormat="1">
+      <c r="A105" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="85">
+      <c r="B105" s="102">
         <f>((78.44+3-33.6*B$97-(66.8-2.92*B103)*B$94+78.5*B$93+9.4*B$96)/(0.0721-0.0083144*LN((27*B$97*B$92*B$39)/(64*B$98*B$93*B$38))))-273.15</f>
         <v>1109.7397230145198</v>
       </c>
-      <c r="C105" s="85">
+      <c r="C105" s="102">
         <f t="shared" ref="B105:I105" si="31">((78.44+3-33.6*C$97-(66.8-2.92*C103)*C$94+78.5*C$93+9.4*C$96)/(0.0721-0.0083144*LN((27*C$97*C$92*C$39)/(64*C$98*C$93*C$38))))-273.15</f>
         <v>1075.3603191042689</v>
       </c>
-      <c r="D105" s="85">
+      <c r="D105" s="102">
         <f t="shared" si="31"/>
         <v>1033.8871086552972</v>
       </c>
-      <c r="E105" s="85">
+      <c r="E105" s="102">
         <f t="shared" si="31"/>
         <v>999.61057609995703</v>
       </c>
-      <c r="F105" s="85">
+      <c r="F105" s="102">
         <f t="shared" si="31"/>
         <v>1071.6017930545122</v>
       </c>
-      <c r="G105" s="85">
+      <c r="G105" s="102">
         <f t="shared" si="31"/>
         <v>1046.2201045002766</v>
       </c>
-      <c r="H105" s="28">
+      <c r="H105" s="102">
         <f t="shared" si="31"/>
         <v>981.97880365274102</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="102">
         <f t="shared" si="31"/>
         <v>967.34903348950877</v>
       </c>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="105" t="s">
+      <c r="J105" s="102"/>
+      <c r="K105" s="102"/>
+      <c r="L105" s="102"/>
+      <c r="M105" s="102"/>
+      <c r="N105" s="102"/>
+      <c r="O105" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="21"/>
-      <c r="X105" s="21"/>
-      <c r="Y105" s="21"/>
-      <c r="Z105" s="21"/>
-      <c r="AA105" s="21"/>
-      <c r="AB105" s="21"/>
-      <c r="AC105" s="21"/>
-      <c r="AD105" s="21"/>
-      <c r="AE105" s="21"/>
-      <c r="AF105" s="21"/>
-      <c r="AG105" s="21"/>
-      <c r="AH105" s="21"/>
-      <c r="AI105" s="21"/>
-      <c r="AJ105" s="21"/>
-      <c r="AK105" s="21"/>
-      <c r="AL105" s="21"/>
-      <c r="AM105" s="21"/>
-      <c r="AN105" s="21"/>
-      <c r="AO105" s="21"/>
-      <c r="AP105" s="21"/>
-      <c r="AQ105" s="21"/>
-      <c r="AR105" s="21"/>
+      <c r="P105" s="103"/>
+      <c r="Q105" s="103"/>
+      <c r="R105" s="103"/>
+      <c r="S105" s="103"/>
+      <c r="T105" s="103"/>
+      <c r="U105" s="103"/>
+      <c r="V105" s="103"/>
+      <c r="W105" s="103"/>
+      <c r="X105" s="103"/>
+      <c r="Y105" s="103"/>
+      <c r="Z105" s="103"/>
+      <c r="AA105" s="103"/>
+      <c r="AB105" s="103"/>
+      <c r="AC105" s="103"/>
+      <c r="AD105" s="103"/>
+      <c r="AE105" s="103"/>
+      <c r="AF105" s="103"/>
+      <c r="AG105" s="103"/>
+      <c r="AH105" s="103"/>
+      <c r="AI105" s="103"/>
+      <c r="AJ105" s="103"/>
+      <c r="AK105" s="103"/>
+      <c r="AL105" s="103"/>
+      <c r="AM105" s="103"/>
+      <c r="AN105" s="103"/>
+      <c r="AO105" s="103"/>
+      <c r="AP105" s="103"/>
+      <c r="AQ105" s="103"/>
+      <c r="AR105" s="103"/>
     </row>
     <row r="106" spans="1:44" s="3" customFormat="1">
       <c r="A106" t="s">
@@ -7065,149 +7078,149 @@
       <c r="AQ108" s="25"/>
       <c r="AR108" s="25"/>
     </row>
-    <row r="109" spans="1:44" s="3" customFormat="1">
-      <c r="A109" t="s">
+    <row r="109" spans="1:44" s="113" customFormat="1">
+      <c r="A109" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="B109" s="86">
+      <c r="B109" s="111">
         <f>((-76.95+B103*0.79+B107+39.4*B$96+22.4*B$99+(41.5-2.89*B103)*B$94)/(-0.065-0.0083144*LN(B$100)))-273.15</f>
         <v>1373.3709614881336</v>
       </c>
-      <c r="C109" s="86">
+      <c r="C109" s="111">
         <f t="shared" ref="C109:I109" si="35">((-76.95+C103*0.79+C107+39.4*C$96+22.4*C$99+(41.5-2.89*C103)*C$94)/(-0.065-0.0083144*LN(C$100)))-273.15</f>
         <v>1358.9710739865254</v>
       </c>
-      <c r="D109" s="86">
+      <c r="D109" s="111">
         <f t="shared" si="35"/>
         <v>1156.0866524765534</v>
       </c>
-      <c r="E109" s="86">
+      <c r="E109" s="111">
         <f t="shared" si="35"/>
         <v>1083.2696199008456</v>
       </c>
-      <c r="F109" s="86">
+      <c r="F109" s="111">
         <f t="shared" si="35"/>
         <v>1172.4249663145151</v>
       </c>
-      <c r="G109" s="86">
+      <c r="G109" s="111">
         <f t="shared" si="35"/>
         <v>1131.370234322505</v>
       </c>
-      <c r="H109" s="86">
+      <c r="H109" s="111">
         <f t="shared" si="35"/>
         <v>851.13020767369369</v>
       </c>
-      <c r="I109" s="86">
+      <c r="I109" s="111">
         <f t="shared" si="35"/>
         <v>783.23559395668588</v>
       </c>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
-      <c r="R109" s="25"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="25"/>
-      <c r="U109" s="25"/>
-      <c r="V109" s="25"/>
-      <c r="W109" s="25"/>
-      <c r="X109" s="25"/>
-      <c r="Y109" s="25"/>
-      <c r="Z109" s="25"/>
-      <c r="AA109" s="25"/>
-      <c r="AB109" s="25"/>
-      <c r="AC109" s="25"/>
-      <c r="AD109" s="25"/>
-      <c r="AE109" s="25"/>
-      <c r="AF109" s="25"/>
-      <c r="AG109" s="25"/>
-      <c r="AH109" s="25"/>
-      <c r="AI109" s="25"/>
-      <c r="AJ109" s="25"/>
-      <c r="AK109" s="25"/>
-      <c r="AL109" s="25"/>
-      <c r="AM109" s="25"/>
-      <c r="AN109" s="25"/>
-      <c r="AO109" s="25"/>
-      <c r="AP109" s="25"/>
-      <c r="AQ109" s="25"/>
-      <c r="AR109" s="25"/>
-    </row>
-    <row r="110" spans="1:44" s="3" customFormat="1">
-      <c r="A110" t="s">
+      <c r="J109" s="111"/>
+      <c r="K109" s="111"/>
+      <c r="L109" s="111"/>
+      <c r="M109" s="111"/>
+      <c r="N109" s="111"/>
+      <c r="O109" s="112"/>
+      <c r="P109" s="112"/>
+      <c r="Q109" s="112"/>
+      <c r="R109" s="112"/>
+      <c r="S109" s="112"/>
+      <c r="T109" s="112"/>
+      <c r="U109" s="112"/>
+      <c r="V109" s="112"/>
+      <c r="W109" s="112"/>
+      <c r="X109" s="112"/>
+      <c r="Y109" s="112"/>
+      <c r="Z109" s="112"/>
+      <c r="AA109" s="112"/>
+      <c r="AB109" s="112"/>
+      <c r="AC109" s="112"/>
+      <c r="AD109" s="112"/>
+      <c r="AE109" s="112"/>
+      <c r="AF109" s="112"/>
+      <c r="AG109" s="112"/>
+      <c r="AH109" s="112"/>
+      <c r="AI109" s="112"/>
+      <c r="AJ109" s="112"/>
+      <c r="AK109" s="112"/>
+      <c r="AL109" s="112"/>
+      <c r="AM109" s="112"/>
+      <c r="AN109" s="112"/>
+      <c r="AO109" s="112"/>
+      <c r="AP109" s="112"/>
+      <c r="AQ109" s="112"/>
+      <c r="AR109" s="112"/>
+    </row>
+    <row r="110" spans="1:44" s="113" customFormat="1">
+      <c r="A110" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="B110" s="86">
+      <c r="B110" s="111">
         <f>((78.44+B108-33.6*B$97-(66.8-2.92*B103)*B$94+78.5*B$93+9.4*B$96)/(0.0721-0.0083144*LN((27*B$97*B$92*B$39)/(64*B$98*B$93*B$38))))-273.15</f>
         <v>1012.0285535937631</v>
       </c>
-      <c r="C110" s="86">
+      <c r="C110" s="111">
         <f t="shared" ref="C110:I110" si="36">((78.44+C108-33.6*C$97-(66.8-2.92*C103)*C$94+78.5*C$93+9.4*C$96)/(0.0721-0.0083144*LN((27*C$97*C$92*C$39)/(64*C$98*C$93*C$38))))-273.15</f>
         <v>991.66052083871057</v>
       </c>
-      <c r="D110" s="86">
+      <c r="D110" s="111">
         <f t="shared" si="36"/>
         <v>951.87361023388041</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="111">
         <f t="shared" si="36"/>
         <v>947.85317186649525</v>
       </c>
-      <c r="F110" s="86">
+      <c r="F110" s="111">
         <f t="shared" si="36"/>
         <v>972.06820126376704</v>
       </c>
-      <c r="G110" s="86">
+      <c r="G110" s="111">
         <f t="shared" si="36"/>
         <v>958.90325210028971</v>
       </c>
-      <c r="H110" s="86">
+      <c r="H110" s="111">
         <f t="shared" si="36"/>
         <v>875.85952657736641</v>
       </c>
-      <c r="I110" s="86">
+      <c r="I110" s="111">
         <f t="shared" si="36"/>
         <v>866.80486644161067</v>
       </c>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="29"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="25"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="25"/>
-      <c r="U110" s="25"/>
-      <c r="V110" s="25"/>
-      <c r="W110" s="25"/>
-      <c r="X110" s="25"/>
-      <c r="Y110" s="25"/>
-      <c r="Z110" s="25"/>
-      <c r="AA110" s="25"/>
-      <c r="AB110" s="25"/>
-      <c r="AC110" s="25"/>
-      <c r="AD110" s="25"/>
-      <c r="AE110" s="25"/>
-      <c r="AF110" s="25"/>
-      <c r="AG110" s="25"/>
-      <c r="AH110" s="25"/>
-      <c r="AI110" s="25"/>
-      <c r="AJ110" s="25"/>
-      <c r="AK110" s="25"/>
-      <c r="AL110" s="25"/>
-      <c r="AM110" s="25"/>
-      <c r="AN110" s="25"/>
-      <c r="AO110" s="25"/>
-      <c r="AP110" s="25"/>
-      <c r="AQ110" s="25"/>
-      <c r="AR110" s="25"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
+      <c r="L110" s="111"/>
+      <c r="M110" s="111"/>
+      <c r="N110" s="111"/>
+      <c r="O110" s="112"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="112"/>
+      <c r="R110" s="112"/>
+      <c r="S110" s="112"/>
+      <c r="T110" s="112"/>
+      <c r="U110" s="112"/>
+      <c r="V110" s="112"/>
+      <c r="W110" s="112"/>
+      <c r="X110" s="112"/>
+      <c r="Y110" s="112"/>
+      <c r="Z110" s="112"/>
+      <c r="AA110" s="112"/>
+      <c r="AB110" s="112"/>
+      <c r="AC110" s="112"/>
+      <c r="AD110" s="112"/>
+      <c r="AE110" s="112"/>
+      <c r="AF110" s="112"/>
+      <c r="AG110" s="112"/>
+      <c r="AH110" s="112"/>
+      <c r="AI110" s="112"/>
+      <c r="AJ110" s="112"/>
+      <c r="AK110" s="112"/>
+      <c r="AL110" s="112"/>
+      <c r="AM110" s="112"/>
+      <c r="AN110" s="112"/>
+      <c r="AO110" s="112"/>
+      <c r="AP110" s="112"/>
+      <c r="AQ110" s="112"/>
+      <c r="AR110" s="112"/>
     </row>
     <row r="111" spans="1:44" s="3" customFormat="1">
       <c r="A111" s="3" t="s">
@@ -31281,7 +31294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
